--- a/packages/meditrak-server/src/tests/testData/surveyResponses/importResponsesFromMultipleSurveys.xlsx
+++ b/packages/meditrak-server/src/tests/testData/surveyResponses/importResponsesFromMultipleSurveys.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\Projects\tupaia\packages\meditrak-server\src\tests\testData\importSurveyResponses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\Projects\tupaia\packages\meditrak-server\src\tests\testData\surveyResponses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EB2E69-DE3F-48D8-AF00-B1DBE2B7C81C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F19F11-818A-4EDD-8D42-4256641302E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{374AE92A-F87C-41BB-B830-F4B1DDD546AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{374AE92A-F87C-41BB-B830-F4B1DDD546AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Clinic Data..." sheetId="1" r:id="rId1"/>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69510686-D67C-43FC-80AD-EA2A52E56C83}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="A1:H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -694,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5154EAE5-644C-4917-BB4B-509B434AFDD8}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/packages/meditrak-server/src/tests/testData/surveyResponses/importResponsesFromMultipleSurveys.xlsx
+++ b/packages/meditrak-server/src/tests/testData/surveyResponses/importResponsesFromMultipleSurveys.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\Projects\tupaia\packages\meditrak-server\src\tests\testData\surveyResponses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F19F11-818A-4EDD-8D42-4256641302E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADFC079-06F8-42A2-9F82-ED9369EEDD37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{374AE92A-F87C-41BB-B830-F4B1DDD546AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{374AE92A-F87C-41BB-B830-F4B1DDD546AE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Basic Clinic Data..." sheetId="1" r:id="rId1"/>
-    <sheet name="Facility Fundamentals" sheetId="2" r:id="rId2"/>
+    <sheet name="Test Import Survey Response 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Import Survey Response 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -523,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69510686-D67C-43FC-80AD-EA2A52E56C83}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5154EAE5-644C-4917-BB4B-509B434AFDD8}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/packages/meditrak-server/src/tests/testData/surveyResponses/importResponsesFromMultipleSurveys.xlsx
+++ b/packages/meditrak-server/src/tests/testData/surveyResponses/importResponsesFromMultipleSurveys.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25003"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\Projects\tupaia\packages\meditrak-server\src\tests\testData\surveyResponses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADFC079-06F8-42A2-9F82-ED9369EEDD37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF751B74-B537-4EAA-B9CA-7A44DCC81AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{374AE92A-F87C-41BB-B830-F4B1DDD546AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{374AE92A-F87C-41BB-B830-F4B1DDD546AE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Import Survey Response 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Import Survey Response 2" sheetId="2" r:id="rId2"/>
+    <sheet name="TEST_IMPORT_SURVEY_RESP_1_test" sheetId="1" r:id="rId1"/>
+    <sheet name="TEST_IMPORT_SURVEY_RESP_2_test" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -132,50 +134,50 @@
     <t>Opening hours</t>
   </si>
   <si>
+    <t>fdfcc42a44705c123e2_test</t>
+  </si>
+  <si>
+    <t>KI_111_test</t>
+  </si>
+  <si>
+    <t>KI_222_test</t>
+  </si>
+  <si>
+    <t>KI_333_test</t>
+  </si>
+  <si>
+    <t>KI_444_test</t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>Test 3</t>
+  </si>
+  <si>
+    <t>Test 4</t>
+  </si>
+  <si>
+    <t>fdfcc42a22321c123a8_test</t>
+  </si>
+  <si>
     <t>TEST_IMPORT_SURVEY_RESPONSES_2_question_1_test</t>
   </si>
   <si>
+    <t>fdfcc42a66321c123a8_test</t>
+  </si>
+  <si>
     <t>TEST_IMPORT_SURVEY_RESPONSES_2_question_2_test</t>
-  </si>
-  <si>
-    <t>fdfcc42a44705c123e2_test</t>
-  </si>
-  <si>
-    <t>fdfcc42a22321c123a8_test</t>
-  </si>
-  <si>
-    <t>fdfcc42a66321c123a8_test</t>
-  </si>
-  <si>
-    <t>KI_111_test</t>
-  </si>
-  <si>
-    <t>KI_222_test</t>
-  </si>
-  <si>
-    <t>KI_333_test</t>
-  </si>
-  <si>
-    <t>KI_444_test</t>
-  </si>
-  <si>
-    <t>Test 1</t>
-  </si>
-  <si>
-    <t>Test 2</t>
-  </si>
-  <si>
-    <t>Test 3</t>
-  </si>
-  <si>
-    <t>Test 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,9 +529,9 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -555,7 +557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -581,7 +583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -607,7 +609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -633,7 +635,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -659,7 +661,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -698,9 +700,9 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -714,7 +716,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -726,7 +728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -740,19 +742,19 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -766,19 +768,19 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -804,15 +806,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -830,15 +832,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
         <v>31</v>
